--- a/data_analysis/manuale_simulazioni.xlsx
+++ b/data_analysis/manuale_simulazioni.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocpa\OneDrive\Documenti\GitHub\tragedynatural\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F75FEBAE-1E8C-483B-BD6E-54E3585C7D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887326C9-73C7-4B05-A8B7-E15021B9E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="simulations_scripts" sheetId="1" r:id="rId1"/>
+    <sheet name="prop_decision" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>variable</t>
   </si>
@@ -114,6 +115,24 @@
   </si>
   <si>
     <t>totale riserva energetica del pascolo</t>
+  </si>
+  <si>
+    <t>propbuycow</t>
+  </si>
+  <si>
+    <t>propinvccr</t>
+  </si>
+  <si>
+    <t>propsaving</t>
+  </si>
+  <si>
+    <t>proportion of new cows bought out of capital</t>
+  </si>
+  <si>
+    <t>proportion of investment in contributo comune out of capital</t>
+  </si>
+  <si>
+    <t>proportion of money saved out of capital</t>
   </si>
 </sst>
 </file>
@@ -487,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799EB076-ABEA-4D6A-8328-D183D6CC25E1}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,4 +622,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F1FF4E-3408-4C37-995B-E983753CAEE9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_analysis/manuale_simulazioni.xlsx
+++ b/data_analysis/manuale_simulazioni.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocpa\OneDrive\Documenti\GitHub\tragedynatural\data_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocpa\OneDrive\Documenti\GitHub\watchyouragent\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887326C9-73C7-4B05-A8B7-E15021B9E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E4A06-D593-45EA-856A-179D3572925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="simulations_scripts" sheetId="1" r:id="rId1"/>
-    <sheet name="prop_decision" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="prop_decision" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>variable</t>
   </si>
@@ -133,6 +134,24 @@
   </si>
   <si>
     <t>proportion of money saved out of capital</t>
+  </si>
+  <si>
+    <t>time (days)</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>choice: muccheslider, ccr</t>
+  </si>
+  <si>
+    <t>default: muccheslider1, ccr 0, given 10 euros capital</t>
+  </si>
+  <si>
+    <t>energia_acquisita</t>
+  </si>
+  <si>
+    <t>default: muccheslider1, ccr 0  [from above]</t>
   </si>
 </sst>
 </file>
@@ -507,7 +526,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,10 +644,354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15946D7-5104-47D3-AF5E-605C3705CDC0}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F1FF4E-3408-4C37-995B-E983753CAEE9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/data_analysis/manuale_simulazioni.xlsx
+++ b/data_analysis/manuale_simulazioni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocpa\OneDrive\Documenti\GitHub\watchyouragent\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E4A06-D593-45EA-856A-179D3572925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712931E5-AE65-42F9-8DBA-ED6058E7F87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
   </bookViews>
@@ -167,12 +167,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,8 +199,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,15 +660,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15946D7-5104-47D3-AF5E-605C3705CDC0}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -661,7 +676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -672,7 +687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -683,7 +698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -691,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -699,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -707,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -715,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -723,29 +738,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -753,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -761,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -769,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -777,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -785,11 +801,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -797,10 +813,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -848,10 +864,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>21</v>
       </c>
       <c r="C23" t="s">
@@ -859,10 +875,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" t="s">
@@ -910,10 +926,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>28</v>
       </c>
       <c r="C30" t="s">
@@ -921,10 +937,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -972,10 +988,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>35</v>
       </c>
       <c r="C37" t="s">

--- a/data_analysis/manuale_simulazioni.xlsx
+++ b/data_analysis/manuale_simulazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocpa\OneDrive\Documenti\GitHub\watchyouragent\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712931E5-AE65-42F9-8DBA-ED6058E7F87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FF54F-2768-45D4-858E-EAB37D008876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="simulations_scripts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>variable</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>default: muccheslider1, ccr 0  [from above]</t>
+  </si>
+  <si>
+    <t>nrgacqweek</t>
+  </si>
+  <si>
+    <t>newnrgweek</t>
+  </si>
+  <si>
+    <t>energy acquired in that week (last day of week before - last day of the reference week)</t>
+  </si>
+  <si>
+    <t>energy renewed for that week (ccr * 10 of the first day of the reference week)</t>
   </si>
 </sst>
 </file>
@@ -199,10 +211,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799EB076-ABEA-4D6A-8328-D183D6CC25E1}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,6 +664,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -660,15 +687,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15946D7-5104-47D3-AF5E-605C3705CDC0}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -676,7 +703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -687,7 +714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -698,7 +725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -706,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -714,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -722,7 +749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -730,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -738,30 +765,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -769,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -777,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -785,7 +811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -793,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -801,11 +827,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -864,10 +890,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>3</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" t="s">
@@ -926,10 +952,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>4</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>28</v>
       </c>
       <c r="C30" t="s">
@@ -988,10 +1014,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>35</v>
       </c>
       <c r="C37" t="s">

--- a/data_analysis/manuale_simulazioni.xlsx
+++ b/data_analysis/manuale_simulazioni.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocpa\OneDrive\Documenti\GitHub\watchyouragent\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FF54F-2768-45D4-858E-EAB37D008876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BF5F04-87CD-41E4-8C55-C80AA00F7F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C49FA2A2-CDCD-4370-A73E-6E8EEDB8A6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="simulations_scripts" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="prop_decision" sheetId="2" r:id="rId3"/>
+    <sheet name="prop_decision" sheetId="2" r:id="rId2"/>
+    <sheet name="days" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799EB076-ABEA-4D6A-8328-D183D6CC25E1}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -686,350 +686,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15946D7-5104-47D3-AF5E-605C3705CDC0}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>5</v>
-      </c>
-      <c r="B37" s="2">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F1FF4E-3408-4C37-995B-E983753CAEE9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1078,4 +734,348 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15946D7-5104-47D3-AF5E-605C3705CDC0}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>